--- a/实验结果/算法性能数据10000.xlsx
+++ b/实验结果/算法性能数据10000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="25600" windowHeight="15460" tabRatio="651" activeTab="5"/>
+    <workbookView xWindow="2900" yWindow="160" windowWidth="25600" windowHeight="15460" tabRatio="651" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="欧式距离算法" sheetId="1" r:id="rId1"/>
@@ -1282,7 +1282,7 @@
         <v>97.2</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ref="B7:J7" si="0">AVERAGE(E2:E6)</f>
+        <f t="shared" ref="E7:J7" si="0">AVERAGE(E2:E6)</f>
         <v>18233.2</v>
       </c>
       <c r="F7" s="2">
@@ -2036,7 +2036,7 @@
         <v>98.82</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ref="B7:J7" si="0">AVERAGE(E2:E6)</f>
+        <f t="shared" ref="E7:J7" si="0">AVERAGE(E2:E6)</f>
         <v>20775.599999999999</v>
       </c>
       <c r="F7" s="2">
@@ -2668,7 +2668,7 @@
         <v>98.640000000000015</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ref="B7:J7" si="0">AVERAGE(E2:E6)</f>
+        <f t="shared" ref="E7:J7" si="0">AVERAGE(E2:E6)</f>
         <v>20775.599999999999</v>
       </c>
       <c r="F7" s="2">
